--- a/Data/Output/부동산공시_20240411_박건후.xlsx
+++ b/Data/Output/부동산공시_20240411_박건후.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpasj\Documents\RPA교육\03_수업교안\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\공부\UiPath\RPA02_부동산공시가격_박건후\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211559CD-3E03-425E-B8EA-E8CD2B974056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="회원목록" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -198,105 +197,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>변동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나성북1로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한신더휴리저브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사비로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세운빌라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구미시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백산로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우방타운1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주특별자치도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노형2길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하임스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구례군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백련길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청담웰피아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시기준일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시기준일 가격(￦)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기준가격(￦)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세종특별자치시</t>
-  </si>
-  <si>
-    <t>세종특별자치시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나성북1로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한신더휴리저브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부여군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사비로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세운빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제1동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구미시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백산로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우방타운1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주특별자치도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노형2길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하임스톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구례군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백련길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청담웰피아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공시기준일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공시기준일 가격(￦)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -721,12 +720,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F02DF-D866-446D-A5ED-D44204B2CBDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>63</v>
@@ -778,7 +777,7 @@
         <v>64</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -897,7 +896,7 @@
         <v>305</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -943,16 +942,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>603</v>
@@ -976,16 +975,16 @@
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="1">
         <v>305</v>
@@ -1006,13 +1005,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G9" s="1">
         <v>7</v>
@@ -1033,16 +1032,16 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="1">
         <v>204</v>
@@ -1063,16 +1062,16 @@
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="1">
         <v>105</v>
